--- a/src/test/java/data/Demo10.xlsx
+++ b/src/test/java/data/Demo10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Name</t>
   </si>
@@ -73,16 +73,12 @@
   </si>
   <si>
     <t>Pune</t>
-  </si>
-  <si>
-    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -408,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -416,7 +412,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -441,62 +437,182 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>8596247859</v>
+        <v>8596247856</v>
       </c>
       <c r="C2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2">
-        <v>35000</v>
+        <v>50000</v>
       </c>
       <c r="E2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3">
-        <v>8596247860</v>
+        <v>8596247857</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>68000</v>
+        <v>75000</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>8596247858</v>
+      </c>
+      <c r="C4">
+        <v>16</v>
+      </c>
+      <c r="D4">
+        <v>65000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8596247859</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>35000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>8596247860</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>68000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>8596247861</v>
+      </c>
+      <c r="C7">
+        <v>74</v>
+      </c>
+      <c r="D7">
+        <v>30000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>8596247862</v>
       </c>
-      <c r="C4">
+      <c r="C8">
         <v>22</v>
       </c>
-      <c r="D4">
+      <c r="D8">
         <v>15000</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E8" t="b">
         <v>0</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F8" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <v>8596247863</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>40000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>8596247864</v>
+      </c>
+      <c r="C10">
+        <v>36</v>
+      </c>
+      <c r="D10">
+        <v>25000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/data/Demo10.xlsx
+++ b/src/test/java/data/Demo10.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="20">
   <si>
     <t>Name</t>
   </si>
@@ -73,12 +73,16 @@
   </si>
   <si>
     <t>Pune</t>
+  </si>
+  <si>
+    <t>Alex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -404,7 +408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
@@ -412,7 +416,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -437,182 +441,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>8596247856</v>
+        <v>8596247859</v>
       </c>
       <c r="C2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>50000</v>
+        <v>35000</v>
       </c>
       <c r="E2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3">
-        <v>8596247857</v>
+        <v>8596247860</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>75000</v>
+        <v>68000</v>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>8596247858</v>
+        <v>8596247862</v>
       </c>
       <c r="C4">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>65000</v>
+        <v>15000</v>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8596247859</v>
-      </c>
-      <c r="C5">
-        <v>25</v>
-      </c>
-      <c r="D5">
-        <v>35000</v>
-      </c>
-      <c r="E5" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>8596247860</v>
-      </c>
-      <c r="C6">
-        <v>45</v>
-      </c>
-      <c r="D6">
-        <v>68000</v>
-      </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>8596247861</v>
-      </c>
-      <c r="C7">
-        <v>74</v>
-      </c>
-      <c r="D7">
-        <v>30000</v>
-      </c>
-      <c r="E7" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>8596247862</v>
-      </c>
-      <c r="C8">
-        <v>22</v>
-      </c>
-      <c r="D8">
-        <v>15000</v>
-      </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
-      <c r="F8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>8596247863</v>
-      </c>
-      <c r="C9">
-        <v>65</v>
-      </c>
-      <c r="D9">
-        <v>40000</v>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>8596247864</v>
-      </c>
-      <c r="C10">
-        <v>36</v>
-      </c>
-      <c r="D10">
-        <v>25000</v>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
